--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto Telefonica\Cloud Automatizacion\VentasFija-master_Plan\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cibertec\PRUEBAS\Nueva carpeta\VentasFija\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD61ECB2-48A1-42B4-A8AB-30A4C58655CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="333" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conexiones" sheetId="5" r:id="rId1"/>
@@ -146,9 +147,6 @@
     <t>compose</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -485,15 +483,6 @@
     <t>Login Correcto</t>
   </si>
   <si>
-    <t>jdbc:postgresql://sl-us-south-1-portal.47.dblayer.com</t>
-  </si>
-  <si>
-    <t>22832</t>
-  </si>
-  <si>
-    <t>PHOHIIACWMQRLJBY</t>
-  </si>
-  <si>
     <t>iNombrePlan</t>
   </si>
   <si>
@@ -506,9 +495,6 @@
     <t>MOVISTAR VOZ</t>
   </si>
   <si>
-    <t>100011</t>
-  </si>
-  <si>
     <t>100033</t>
   </si>
   <si>
@@ -524,16 +510,31 @@
     <t>https://tdp-web-venta-fija-qa-v2.mybluemix.net/audioout</t>
   </si>
   <si>
-    <t>Hola TEST FIJA, escoge o sugiere una de estas acciones</t>
-  </si>
-  <si>
     <t>Hola REMOTO IN, escoge o sugiere una de estas acciones</t>
+  </si>
+  <si>
+    <t>104998</t>
+  </si>
+  <si>
+    <t>Hola CAROLYNE DANIELA, escoge o sugiere una de estas acciones</t>
+  </si>
+  <si>
+    <t>jdbc:postgresql://sl-us-south-1-portal.42.dblayer.com</t>
+  </si>
+  <si>
+    <t>23299</t>
+  </si>
+  <si>
+    <t>drakkar_qa3</t>
+  </si>
+  <si>
+    <t>po283sz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -970,11 +971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1005,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,22 +1013,22 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1040,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>4</v>
@@ -1073,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>14</v>
@@ -1088,13 +1089,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1111,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1126,13 +1127,13 @@
         <v>5</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,31 +1147,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1184,31 +1185,31 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1222,31 +1223,31 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1254,18 +1255,18 @@
         <v>31</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1273,15 +1274,15 @@
         <v>32</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1289,76 +1290,76 @@
         <v>23</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="J15" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1366,73 +1367,73 @@
         <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E18" s="13"/>
       <c r="J18" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E19" s="13"/>
       <c r="J19" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1447,7 +1448,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" display="https://tdp-web-venta-fija-qa.mybluemix.net/acciones"/>
+    <hyperlink ref="D17" r:id="rId1" display="https://tdp-web-venta-fija-qa.mybluemix.net/acciones" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1458,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1496,10 +1497,10 @@
         <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>17</v>
@@ -1517,10 +1518,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -1529,41 +1530,41 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R1" s="20"/>
       <c r="S1" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AE1" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1577,45 +1578,45 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
@@ -1636,40 +1637,40 @@
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>2</v>
@@ -1678,49 +1679,49 @@
         <v>2</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -1731,94 +1732,94 @@
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1832,91 +1833,91 @@
         <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -1930,138 +1931,138 @@
         <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>2</v>
@@ -2070,46 +2071,46 @@
         <v>2</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -2120,117 +2121,117 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="Q8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="T8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="I9" s="6"/>
       <c r="P9" s="6"/>
@@ -2243,10 +2244,10 @@
       <c r="X9" s="4"/>
       <c r="AB9" s="7"/>
       <c r="AD9" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2257,22 +2258,22 @@
         <v>12</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="6"/>
       <c r="P10" s="6"/>
@@ -2281,42 +2282,42 @@
       <c r="S10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AD10" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -2327,85 +2328,85 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AD11" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>2</v>
@@ -2414,112 +2415,112 @@
         <v>2</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="7"/>
       <c r="AD12" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AA13" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="AB13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2703,17 +2704,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -2724,6 +2714,17 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2733,55 +2734,55 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>BD!$G$3:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>J3:O17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>BD!$H$3:$H$5</xm:f>
           </x14:formula1>
           <xm:sqref>P3:P17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>BD!$I$3:$I$5</xm:f>
           </x14:formula1>
           <xm:sqref>Q3:Q17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>BD!$J$3:$J$4</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>BD!$K$3:$K$9</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
             <xm:f>BD!$L$3:$L$4</xm:f>
           </x14:formula1>
           <xm:sqref>U3:X16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
           <x14:formula1>
             <xm:f>BD!$M$3:$M$4</xm:f>
           </x14:formula1>
           <xm:sqref>Y3:Y16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
           <x14:formula1>
             <xm:f>BD!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000008000000}">
           <x14:formula1>
             <xm:f>BD!$E$3:$E$6</xm:f>
           </x14:formula1>
@@ -2794,11 +2795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,27 +2828,27 @@
         <v>19</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -2857,16 +2858,16 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -2874,13 +2875,13 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>0</v>
@@ -2889,27 +2890,27 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
@@ -2918,59 +2919,59 @@
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -2998,21 +2999,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010071BA08FC65A35F40AC39CF87D500A7B6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="760feb6dce83cf40c935e30221cfd563">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="488f3ee6-0001-45be-affc-d6376ed368d5" xmlns:ns3="2acf951f-4a47-41d0-97c6-406441da21db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11b928e72f0e73103db2c1af8e9b564c" ns2:_="" ns3:_="">
     <xsd:import namespace="488f3ee6-0001-45be-affc-d6376ed368d5"/>
@@ -3223,24 +3209,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAC08B8-73E9-48E1-94F7-4555968A7864}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5278A6-2A21-4E01-B563-B791F9CE1DB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{061DBB07-91E9-47FD-BD47-A22D8AF8B5FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3257,4 +3241,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5278A6-2A21-4E01-B563-B791F9CE1DB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAC08B8-73E9-48E1-94F7-4555968A7864}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>